--- a/tut04/output_by_subject/PH521.xlsx
+++ b/tut04/output_by_subject/PH521.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,550 +424,175 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>rollno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>register_sem</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subno</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sub_type</t>
+          <t>rollnoregister_semsubnosub_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2012PH20</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH203PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2012PH09</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH093PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2012PH14</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH143PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2012PH07</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH073PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2012PH17</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH173PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2012PH15</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH153PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2012PH08</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH083PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2012PH19</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH193PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2012PH10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH103PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2012PH04</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH043PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2012PH18</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH183PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2012PH11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH113PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2012PH06</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH063PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2012PH02</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH023PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2012PH01</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH013PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2121PH06</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CREDIT</t>
+          <t>2121PH062PH521CREDIT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2012PH22</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH223PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2012PH21</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH213PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2012PH16</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH163PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2012PH13</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH133PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2012PH12</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH123PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2012PH05</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH053PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2012PH24</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH243PH521CORE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2012PH03</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PH521</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2012PH033PH521CORE</t>
         </is>
       </c>
     </row>
